--- a/WITPAE Pilots.xlsx
+++ b/WITPAE Pilots.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JJ\Documents\WITPAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Other\WITPAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="4275" windowHeight="1185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Squadrons" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>Lexington</t>
   </si>
@@ -102,9 +102,6 @@
     <t>1LT</t>
   </si>
   <si>
-    <t>Grady K</t>
-  </si>
-  <si>
     <t>Kills</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Gann, A.</t>
   </si>
   <si>
-    <t>Fletcher, T.</t>
-  </si>
-  <si>
     <t>Gingles, M.</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>King, R.</t>
   </si>
   <si>
-    <t>Nesmith, S.B.</t>
-  </si>
-  <si>
     <t>Flory, D.</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>Gwinn, A.</t>
   </si>
   <si>
-    <t>Gardner, J.</t>
-  </si>
-  <si>
     <t>Garay, A.</t>
   </si>
   <si>
@@ -195,27 +183,12 @@
     <t>Sarrate, J.</t>
   </si>
   <si>
-    <t>Lynden, B.</t>
-  </si>
-  <si>
     <t>Wheeler, N.</t>
   </si>
   <si>
     <t>Cohen, K.</t>
   </si>
   <si>
-    <t>Kees, C.</t>
-  </si>
-  <si>
-    <t>Boothe, C.</t>
-  </si>
-  <si>
-    <t>Healey, M.</t>
-  </si>
-  <si>
-    <t>Johns, J.</t>
-  </si>
-  <si>
     <t>Kassens, H.</t>
   </si>
   <si>
@@ -225,45 +198,21 @@
     <t>Northup, B.</t>
   </si>
   <si>
-    <t>Burger, N.</t>
-  </si>
-  <si>
     <t>Kiss, M.</t>
   </si>
   <si>
     <t>Hima, M.</t>
   </si>
   <si>
-    <t>Lynns, R.</t>
-  </si>
-  <si>
     <t>Burkes, S.</t>
   </si>
   <si>
     <t>Clark, R.</t>
   </si>
   <si>
-    <t>Gregory, C.</t>
-  </si>
-  <si>
     <t>USN</t>
   </si>
   <si>
-    <t>Wise, B.</t>
-  </si>
-  <si>
-    <t>Richards, B.</t>
-  </si>
-  <si>
-    <t>Greenwell, G.</t>
-  </si>
-  <si>
-    <t>Kassens, D.</t>
-  </si>
-  <si>
-    <t>Gamblin, S.</t>
-  </si>
-  <si>
     <t>Pilot's -JJ's War</t>
   </si>
   <si>
@@ -294,12 +243,6 @@
     <t>Edmond, C.</t>
   </si>
   <si>
-    <t>Shepard, J.</t>
-  </si>
-  <si>
-    <t>Evans, G.</t>
-  </si>
-  <si>
     <t>Bedwell, R.B.</t>
   </si>
   <si>
@@ -316,13 +259,43 @@
   </si>
   <si>
     <t>KIA</t>
+  </si>
+  <si>
+    <t>Greenwell, G</t>
+  </si>
+  <si>
+    <t>Vamadevan, D.</t>
+  </si>
+  <si>
+    <t>Collier, J</t>
+  </si>
+  <si>
+    <t>Kassens, D.J.</t>
+  </si>
+  <si>
+    <t>Mullett, M</t>
+  </si>
+  <si>
+    <t>Grady, K.</t>
+  </si>
+  <si>
+    <t>Brown, D.</t>
+  </si>
+  <si>
+    <t>Prather, D.</t>
+  </si>
+  <si>
+    <t>Vonderharr, J.</t>
+  </si>
+  <si>
+    <t>Clouse, E.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +312,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,6 +393,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,6 +491,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -541,6 +543,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,7 +739,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,16 +760,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -759,14 +778,14 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
@@ -775,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -790,104 +809,104 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
       <c r="M3" s="4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>85</v>
+      <c r="C4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
+      <c r="I4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="7"/>
       <c r="M4" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
+      <c r="D5" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="4"/>
-      <c r="I5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
+      <c r="I5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="10"/>
       <c r="M5" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
+      <c r="D6" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="4"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="4"/>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="K7" s="4"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>49</v>
+      <c r="J8" t="s">
+        <v>45</v>
       </c>
       <c r="M8" s="4"/>
     </row>
@@ -895,26 +914,20 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>77</v>
+      <c r="J9" t="s">
+        <v>61</v>
       </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -925,105 +938,106 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
-      <c r="I11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>55</v>
+      <c r="I11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
       </c>
       <c r="K11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
+      <c r="D12" t="s">
+        <v>80</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="I12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>52</v>
+      <c r="I12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
       </c>
       <c r="K12" s="4"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>78</v>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>51</v>
+      <c r="J13" t="s">
+        <v>47</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>73</v>
+      <c r="J14" t="s">
+        <v>46</v>
       </c>
       <c r="K14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
+      <c r="D15" t="s">
+        <v>81</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>50</v>
+      <c r="J15" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="K15" s="4"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="D16"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J16" t="s">
-        <v>94</v>
+      <c r="J16" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="K16" s="4"/>
       <c r="M16" s="4"/>
@@ -1031,12 +1045,6 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1047,104 +1055,110 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>60</v>
+      <c r="I18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
       </c>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="I19" s="2" t="s">
-        <v>88</v>
+      <c r="I19" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>16</v>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>83</v>
+      <c r="J20" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="I21" s="2" t="s">
-        <v>25</v>
+      <c r="I21" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
+      <c r="D22" t="s">
+        <v>83</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>79</v>
+      <c r="D23" t="s">
+        <v>37</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>63</v>
+      <c r="J23" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="K23" s="4"/>
       <c r="M23" s="4"/>
@@ -1152,12 +1166,6 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1168,100 +1176,100 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>67</v>
+      <c r="I25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
       </c>
       <c r="K25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
+      <c r="C26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" t="s">
-        <v>96</v>
-      </c>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>65</v>
+      <c r="J28" t="s">
+        <v>57</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
+      <c r="D29" t="s">
+        <v>40</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="I29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>64</v>
+      <c r="I29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>77</v>
       </c>
       <c r="K29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K30" s="4"/>
       <c r="M30" s="4"/>
@@ -1270,138 +1278,94 @@
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="2" t="s">
-        <v>24</v>
+      <c r="I31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
       </c>
       <c r="K31" s="4"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="I32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="G32" s="8"/>
       <c r="K32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>27</v>
+      <c r="D33" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="I33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="K33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="I34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>57</v>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="I35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="K35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>59</v>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="I36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" t="s">
-        <v>90</v>
-      </c>
+      <c r="J36"/>
       <c r="K36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>56</v>
-      </c>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="I37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="K38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F39" s="4"/>
       <c r="H39" s="2" t="s">
         <v>22</v>
@@ -1409,7 +1373,7 @@
       <c r="K39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F40" s="4"/>
       <c r="H40" s="2" t="s">
         <v>23</v>
@@ -1417,19 +1381,19 @@
       <c r="K40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H42" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
         <v>21</v>
       </c>

--- a/WITPAE Pilots.xlsx
+++ b/WITPAE Pilots.xlsx
@@ -213,9 +213,6 @@
     <t>USN</t>
   </si>
   <si>
-    <t>Pilot's -JJ's War</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>MAJ</t>
   </si>
   <si>
-    <t>Edmond, C.</t>
-  </si>
-  <si>
     <t>Bedwell, R.B.</t>
   </si>
   <si>
@@ -289,13 +283,19 @@
   </si>
   <si>
     <t>Clouse, E.</t>
+  </si>
+  <si>
+    <t>Mathews, C.</t>
+  </si>
+  <si>
+    <t>Pilot's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,13 +312,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,7 +390,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,13 +752,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>63</v>
@@ -782,7 +774,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>49</v>
@@ -809,7 +801,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
       <c r="M3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -817,16 +809,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="I4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
@@ -834,7 +826,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="7"/>
       <c r="M4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -847,7 +839,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="4"/>
       <c r="I5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
@@ -855,7 +847,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="10"/>
       <c r="M5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -871,7 +863,7 @@
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -888,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7" s="4"/>
       <c r="M7" s="4"/>
@@ -926,8 +918,11 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -938,20 +933,14 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
+      <c r="A11" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="I11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>51</v>
@@ -960,16 +949,19 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="I12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -979,10 +971,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -996,10 +988,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1014,10 +1006,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1031,20 +1023,28 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16"/>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>73</v>
+      <c r="J16" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="K16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1055,14 +1055,11 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1071,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
         <v>55</v>
@@ -1080,43 +1077,43 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
+      <c r="A19" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="I19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1124,16 +1121,16 @@
         <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1141,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M22" s="4"/>
     </row>
@@ -1149,8 +1146,8 @@
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1158,14 +1155,17 @@
         <v>25</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1176,20 +1176,17 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C25" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="I25" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
@@ -1199,15 +1196,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="I26" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
         <v>58</v>
@@ -1215,14 +1212,11 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
+      <c r="A27" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
         <v>59</v>
@@ -1230,11 +1224,14 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>26</v>
@@ -1246,10 +1243,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1257,26 +1254,35 @@
         <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K30" s="4"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>12</v>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1290,14 +1296,11 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1305,98 +1308,82 @@
       <c r="K32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F34" s="4"/>
+      <c r="H34" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
+      <c r="H35" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J36"/>
       <c r="K36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
+      <c r="H37" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="K38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F39" s="4"/>
-      <c r="H39" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="K39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F40" s="4"/>
-      <c r="H40" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K41" s="4"/>
       <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H43" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
